--- a/blockchain.xlsx
+++ b/blockchain.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingxie/projects/limingxie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6914CDF3-A467-F44D-BD71-EFF845FCF9AB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{38BCD6B6-2519-C542-8826-5B8688DC714E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="500" windowWidth="31560" windowHeight="21720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="500" windowWidth="31560" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bitcoin" sheetId="40" r:id="rId1"/>
+    <sheet name="ETH" sheetId="41" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -20645,6 +20646,6086 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30117</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CE1843D-5DF1-8343-A6C6-934E64E512F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333500" y="2101850"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>181937</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>148554</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C39083A-2987-FD49-AED5-2FD6C73B45FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2404437" y="2101850"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30117</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>181937</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直线箭头连接符 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26CA1B76-26F1-4241-9F7F-FCF630BAC287}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="1"/>
+          <a:endCxn id="2" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1935117" y="2400300"/>
+          <a:ext cx="469320" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>300374</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266991</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D99D59A-90E8-074C-BE00-846EBF6C1C41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3475374" y="2101850"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>148554</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>300374</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直线箭头连接符 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C77738F0-02C9-FB41-B77C-338774BEB1A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="1"/>
+          <a:endCxn id="3" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3006054" y="2400300"/>
+          <a:ext cx="469320" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>283683</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101311</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直线箭头连接符 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFB12684-37C4-6842-B80F-A2BF0CF5AB5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="1"/>
+          <a:endCxn id="5" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3776183" y="1301750"/>
+          <a:ext cx="770128" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101311</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>67928</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="矩形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A896F523-B7B5-8A4C-97D7-BD24D23FA403}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4546311" y="2099733"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266991</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101311</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直线箭头连接符 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{467A8349-EF8C-ED4A-B829-5F4D07E920FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="1"/>
+          <a:endCxn id="5" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4076991" y="2398183"/>
+          <a:ext cx="469320" cy="2117"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219748</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>186365</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="矩形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC0CFA85-B2B5-6E44-AC16-A97A7FAA5B72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5617248" y="2101850"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>20683</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="矩形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A25F431C-09A9-1D45-885D-8D2DA9A72257}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6688183" y="2101850"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>C</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>67928</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219748</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直线箭头连接符 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35FF9218-99C6-AF44-A8B7-88608AFDEEFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="1"/>
+          <a:endCxn id="9" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5147928" y="2398183"/>
+          <a:ext cx="469320" cy="2117"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>186365</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>20683</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直线箭头连接符 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{427D447B-549C-264A-AB71-51BEA8142C3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="1"/>
+          <a:endCxn id="17" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6218865" y="2400300"/>
+          <a:ext cx="469318" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1324209" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="文本框 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3194EBD-3B12-4A44-B474-D2594725ED63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4343400" y="596900"/>
+          <a:ext cx="1324209" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>Uncle Block</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>7/8</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101311</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>67928</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="矩形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56735AC3-8A11-A642-AD42-C8A0B76536AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4546311" y="1003300"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>A1</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101311</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>148166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>67928</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>173566</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="矩形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FE54CE1-EB83-EE4A-9859-576F8835B7AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4546311" y="3196166"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>A2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101311</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>67928</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="矩形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A59A3D24-8516-3946-BF48-D51E086CDBA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4546311" y="4292600"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>A3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>283683</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101311</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>65616</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="直线箭头连接符 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A3C028-12FA-924F-9CB8-763C08D005A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="1"/>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3776183" y="2698750"/>
+          <a:ext cx="770128" cy="795866"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>283683</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101311</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直线箭头连接符 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58294202-97C8-104D-8549-DFE01F85B978}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="1"/>
+          <a:endCxn id="5" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3776183" y="2698750"/>
+          <a:ext cx="770128" cy="1892300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>67928</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>203057</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>65616</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直线箭头连接符 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276DCDAF-91FD-1049-A2C2-5B2E5C6C187B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="2"/>
+          <a:endCxn id="28" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5147928" y="2698750"/>
+          <a:ext cx="770129" cy="795866"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>67928</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>203057</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直线箭头连接符 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD6B92A4-666E-4F42-A9CA-5C76AF73569C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="0"/>
+          <a:endCxn id="27" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5147928" y="1301750"/>
+          <a:ext cx="770129" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>67928</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>3992</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直线箭头连接符 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC2CAAF8-E6CB-BD48-8B2D-23423BAE208E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="2"/>
+          <a:endCxn id="29" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5147928" y="2698750"/>
+          <a:ext cx="1841064" cy="1892300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1324209" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="文本框 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{380E5678-04AE-C44C-8A4D-80C3887E31DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4343400" y="3860800"/>
+          <a:ext cx="1324209" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>Uncle Block</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>7/8</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1324209" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="文本框 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{236E7E16-39BA-D24D-86E2-F79F00D9F17F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4343400" y="5029200"/>
+          <a:ext cx="1324209" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>Uncle Block</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>6/8</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="788549" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="文本框 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBBBA6B9-B616-B041-A0F9-EC40F4243FE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5765800" y="1778000"/>
+          <a:ext cx="788549" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>1/32</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t> * </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="526939" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="文本框 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8D6E78A-1CF5-F748-AB69-BFFEFFED34EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6845300" y="1778000"/>
+          <a:ext cx="526939" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>1/32</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30117</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="矩形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C363C1-7A24-AC48-BC8B-39CCF1BC49E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333500" y="7624233"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>185453</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152070</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="矩形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE3306E6-26E7-C94F-9CB6-0264D3B4E106}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2407953" y="7624233"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30117</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>185453</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直线箭头连接符 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37B97FCA-AB94-5049-8FF6-9788AAF92161}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="59" idx="1"/>
+          <a:endCxn id="58" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1935117" y="7922683"/>
+          <a:ext cx="472836" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>307406</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>274023</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="矩形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0220788B-EAE2-5B48-86D1-D99833EBA3E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3482406" y="7624233"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152070</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>307406</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直线箭头连接符 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C204B24-3796-1841-B5FF-747CE055A98C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="61" idx="1"/>
+          <a:endCxn id="59" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3009570" y="7922683"/>
+          <a:ext cx="472836" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>111859</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>78476</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="矩形 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C27B53B-3A64-D344-802C-49DBAB7A4738}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4556859" y="7624233"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>274023</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>111859</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="直线箭头连接符 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3BB9F16-F23C-D749-885E-B3BF32567EC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="64" idx="1"/>
+          <a:endCxn id="61" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4084023" y="7922683"/>
+          <a:ext cx="472836" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>233812</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>200429</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="矩形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126FECEB-A5A9-4444-B965-7E2138A05E3D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5631312" y="7624233"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38265</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>4882</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="矩形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89368414-71F7-0847-B8CA-4874A97F2E5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705765" y="7624233"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>78476</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>233812</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直线箭头连接符 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBB4DFF8-1AA3-F943-BD7B-BCE12F4548F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="66" idx="1"/>
+          <a:endCxn id="64" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5158476" y="7922683"/>
+          <a:ext cx="472836" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>200429</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38265</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="直线箭头连接符 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5BF373D-1F09-7742-9CB9-A934CCB4DB0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="67" idx="1"/>
+          <a:endCxn id="66" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6232929" y="7922683"/>
+          <a:ext cx="472836" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>111859</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>148166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>78476</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>173566</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="矩形 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADD251F0-143A-8345-84A2-86A1122B8461}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4556859" y="8720666"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>A2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>290715</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>111859</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>65616</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="直线箭头连接符 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AF6A67B-71E7-7941-8A46-66C412C17A9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="72" idx="1"/>
+          <a:endCxn id="61" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3783215" y="8221133"/>
+          <a:ext cx="773644" cy="797983"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="435953" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="文本框 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DA6F49C-8B38-D841-A34D-671CA4293FC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4635500" y="9385300"/>
+          <a:ext cx="435953" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>2/8</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>160218</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>126835</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="矩形 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C70A770C-8E5E-5E47-939C-3548F63A7254}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7780218" y="7624233"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>282171</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>248788</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="矩形 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F24513C-534C-804E-943E-4A4C9D24F9C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8854671" y="7624233"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>126835</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>282171</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="直线箭头连接符 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5A86D79-6C91-904C-B9CC-4E7FF094E32F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="84" idx="1"/>
+          <a:endCxn id="83" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8381835" y="7922683"/>
+          <a:ext cx="472836" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>86624</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>53241</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="矩形 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4906428-29EB-9C46-8054-55EEBDA5AF85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9929124" y="7624233"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>248788</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>86624</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="87" name="直线箭头连接符 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C323C219-BCBA-0C48-B842-198FEE08DED0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="86" idx="1"/>
+          <a:endCxn id="84" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9456288" y="7922683"/>
+          <a:ext cx="472836" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>208577</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>175194</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="矩形 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8DAA7FC-9946-5A47-AB2B-95FF19A39FE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11003577" y="7624233"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>53241</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>208577</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="直线箭头连接符 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EB95A8B-A2F4-7641-A514-4ADC2AD70FA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="88" idx="1"/>
+          <a:endCxn id="86" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10530741" y="7922683"/>
+          <a:ext cx="472836" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>4882</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>160218</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="97" name="直线箭头连接符 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12E3A3B4-A9A8-234A-B2EA-E467B3B7F727}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="83" idx="1"/>
+          <a:endCxn id="67" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7307382" y="7922683"/>
+          <a:ext cx="472836" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>233812</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>148166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>200429</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>173566</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="103" name="矩形 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFE25A50-4029-604F-A08D-9E22F21B1ED3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5631312" y="8720666"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>A3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95168</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>233812</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>65616</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="直线箭头连接符 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{860BEF69-43A4-E146-B557-A7DA2FE4FA6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="103" idx="1"/>
+          <a:endCxn id="64" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4857668" y="8221133"/>
+          <a:ext cx="773644" cy="797983"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>315237</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="435953" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="文本框 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C829B0A3-48F2-8B46-9695-74A797F6FA8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5712737" y="9385300"/>
+          <a:ext cx="435953" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>3/8</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38265</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>148166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>4882</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>173566</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="矩形 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D36F552-7E82-3049-9E9E-326BA11C0B95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705765" y="8720666"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>A4</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>217121</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38265</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>65616</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="直线箭头连接符 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8C52C38-6E77-664A-94E0-6AB8ED4C1D73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="106" idx="1"/>
+          <a:endCxn id="66" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5932121" y="8221133"/>
+          <a:ext cx="773644" cy="797983"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>122474</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="435953" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="文本框 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F757F6C-C64F-3F46-BB38-2073DE8980A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6789974" y="9385300"/>
+          <a:ext cx="435953" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>4/8</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>160218</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>148166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>126835</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>173566</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="矩形 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D105F709-D69D-A143-B8CA-49CEE4DEBB05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7780218" y="8720666"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>A5</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>21574</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>160218</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>65616</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="110" name="直线箭头连接符 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{369C9259-4F45-294A-9684-A5C8EF7285D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="109" idx="1"/>
+          <a:endCxn id="67" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7006574" y="8221133"/>
+          <a:ext cx="773644" cy="797983"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>247211</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="435953" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="文本框 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25C613B5-0AE0-E740-AB58-2173E0053C88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7867211" y="9385300"/>
+          <a:ext cx="435953" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>5/8</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>282171</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>148166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>248788</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>173566</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="矩形 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1674CF64-F0DF-484A-8FED-2EC4E89FACB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8854671" y="8720666"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>A6</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>143527</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>282171</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>65616</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="113" name="直线箭头连接符 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0DC4CC7-2BE2-FF40-A869-7AA8A9498C98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="112" idx="1"/>
+          <a:endCxn id="83" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8081027" y="8221133"/>
+          <a:ext cx="773644" cy="797983"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>54448</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="435953" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="文本框 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EC2B4B7-9292-C44B-800C-05E28DC30D0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8944448" y="9385300"/>
+          <a:ext cx="435953" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>6/8</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>86624</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>148166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>53241</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>173566</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="矩形 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8578373-7106-604C-9EAF-567F4B3B17E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9929124" y="8720666"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>A7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>265480</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>86624</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>65616</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="直线箭头连接符 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68D812CC-E3B4-C54A-9497-C60FE08E5EB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="115" idx="1"/>
+          <a:endCxn id="84" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9155480" y="8221133"/>
+          <a:ext cx="773644" cy="797983"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>179185</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="435953" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="文本框 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1169BD6F-CCB7-7F4E-B6F2-92FBE5B10627}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10021685" y="9385300"/>
+          <a:ext cx="435953" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>7/8</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30117</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="矩形 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6B773FA-4547-F449-AF76-B141D1E41B14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333500" y="7624233"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>185453</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152070</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="矩形 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7519FA1-D5D7-EE40-BB13-63EBA2D2C954}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2407953" y="7624233"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30117</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>185453</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="直线箭头连接符 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B32ED21B-26BB-B945-8092-04D736ADB845}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="125" idx="1"/>
+          <a:endCxn id="124" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1935117" y="7922683"/>
+          <a:ext cx="472836" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>307406</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>274023</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="矩形 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C60FF1E8-2B67-2B46-9517-F579CF6931B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3482406" y="7624233"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152070</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>307406</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="直线箭头连接符 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E701BA1F-F015-174B-BD13-CE5211CB5027}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="127" idx="1"/>
+          <a:endCxn id="125" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3009570" y="7922683"/>
+          <a:ext cx="472836" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>111859</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>78476</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="矩形 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8992583-C716-AE41-B0B1-8623D4F06E48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4556859" y="7624233"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>274023</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>111859</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="130" name="直线箭头连接符 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFE5E3B8-F978-674F-A46A-6ADE1085B0D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="129" idx="1"/>
+          <a:endCxn id="127" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4084023" y="7922683"/>
+          <a:ext cx="472836" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>233812</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>200429</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="矩形 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EB2D3BB-6885-2B4F-A94E-266883E394C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5631312" y="7624233"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38265</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>4882</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="矩形 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E193ECC7-96FD-9048-A4A4-2F4215FC9981}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705765" y="7624233"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>78476</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>233812</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="133" name="直线箭头连接符 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF4DFEB3-2AF2-EC4D-8A1C-93DD82EFB4EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="131" idx="1"/>
+          <a:endCxn id="129" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5158476" y="7922683"/>
+          <a:ext cx="472836" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>200429</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38265</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="134" name="直线箭头连接符 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B7EA8C-677F-F942-9CCA-7E20C3682604}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="132" idx="1"/>
+          <a:endCxn id="131" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6232929" y="7922683"/>
+          <a:ext cx="472836" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>111859</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>148166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>78476</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>173566</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="矩形 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACB27B80-A50A-0A4A-9AE8-CDA456A86504}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4556859" y="8720666"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>A2</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>290715</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>111859</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>65616</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="136" name="直线箭头连接符 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ABC90A6-5EF2-CC49-ABC2-2B7557852E4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="135" idx="1"/>
+          <a:endCxn id="127" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3783215" y="8221133"/>
+          <a:ext cx="773644" cy="797983"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="435953" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="文本框 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6EE995C-EC9F-3D42-A1CB-63CC0CBFCDB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4635500" y="13004800"/>
+          <a:ext cx="435953" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>7/8</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>160218</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>126835</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="矩形 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{241BA9C0-781B-4B48-B4ED-17589241FC62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7780218" y="7624233"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>282171</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>248788</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="矩形 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07F7AAF5-FC1E-7F42-BE08-130326C4A507}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8854671" y="7624233"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>126835</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>282171</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="140" name="直线箭头连接符 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{188AE34E-83AA-F241-B49C-FA44FDE7CA51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="139" idx="1"/>
+          <a:endCxn id="138" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8381835" y="7922683"/>
+          <a:ext cx="472836" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>86624</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>53241</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="矩形 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3A23A37-5075-2E4F-9587-8DA24D8B152F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9929124" y="7624233"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>248788</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>86624</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="142" name="直线箭头连接符 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3232D42-601D-7946-AAF5-5D30B5F72CAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="141" idx="1"/>
+          <a:endCxn id="139" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9456288" y="7922683"/>
+          <a:ext cx="472836" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>208577</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>4233</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>175194</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>29633</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="矩形 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD5F0E5A-BE22-CD4A-9EB6-C0FDDC4621FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11003577" y="7624233"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>53241</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>208577</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="144" name="直线箭头连接符 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B1734AE-56B4-6B4E-B6FE-ED441BD64A84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="143" idx="1"/>
+          <a:endCxn id="141" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="10530741" y="7922683"/>
+          <a:ext cx="472836" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>4882</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>160218</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>112183</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="145" name="直线箭头连接符 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C37EBF3-FAC1-9645-BDE7-D95B8CC5EAD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="138" idx="1"/>
+          <a:endCxn id="132" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7307382" y="7922683"/>
+          <a:ext cx="472836" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>233812</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>148166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>200429</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>173566</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="146" name="矩形 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B463D8F9-17B3-7141-BB3D-BBC634792BE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5631312" y="8720666"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>A3</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>78476</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>65616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>233812</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>65616</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="147" name="直线箭头连接符 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D6CC7DA-53FC-D648-A647-2156FB7955E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="146" idx="1"/>
+          <a:endCxn id="135" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5158476" y="12638616"/>
+          <a:ext cx="472836" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38265</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>148166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>4882</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>173566</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="矩形 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68E854C7-703C-2745-8EB5-E0D0B998DF26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705765" y="8720666"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>A4</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>200429</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>65616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38265</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>65616</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="150" name="直线箭头连接符 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C212C7F7-8643-E149-B1D1-23F930514E8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="149" idx="1"/>
+          <a:endCxn id="146" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6232929" y="12638616"/>
+          <a:ext cx="472836" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>160218</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>148166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>126835</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>173566</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="152" name="矩形 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{463A9E73-8899-1548-8E4F-FCEBD16375A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7780218" y="8720666"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>A5</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>4882</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>65616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>160218</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>65616</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="153" name="直线箭头连接符 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BAD4C74-3914-4D4E-A5FE-CA16B2D1808D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="152" idx="1"/>
+          <a:endCxn id="149" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7307382" y="12638616"/>
+          <a:ext cx="472836" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>282171</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>148166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>248788</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>173566</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="155" name="矩形 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E441EEF-BCFB-C243-A647-66EA185F5AB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8854671" y="8720666"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>A6</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>126835</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>65616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>282171</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>65616</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="156" name="直线箭头连接符 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC8080BB-9A8B-F34E-824F-B2D15288CE13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="155" idx="1"/>
+          <a:endCxn id="152" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8381835" y="12638616"/>
+          <a:ext cx="472836" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>86624</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>148166</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>53241</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>173566</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="矩形 157">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B9B68A0-EF18-544D-8B02-7B2EF44A8B4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9929124" y="8720666"/>
+          <a:ext cx="601617" cy="596900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-ea"/>
+              <a:ea typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>A7</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="+mn-ea"/>
+            <a:ea typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>248788</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>65616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>86624</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>65616</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="159" name="直线箭头连接符 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC01BEF2-2C42-1344-BBF9-26DA12055775}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="158" idx="1"/>
+          <a:endCxn id="155" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9456288" y="12638616"/>
+          <a:ext cx="472836" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -20929,8 +27010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F7E32A-6212-6D43-AE36-E16B38687072}">
   <dimension ref="F33:T113"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A240" workbookViewId="0">
-      <selection activeCell="AV295" sqref="AV295"/>
+    <sheetView showGridLines="0" topLeftCell="A243" workbookViewId="0">
+      <selection activeCell="B246" sqref="B246:AB268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="15"/>
@@ -21018,24 +27099,23 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6068CADD-C81A-4C48-A7FC-34C870CA106C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="AT71" sqref="AT71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.1640625" defaultRowHeight="15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -21043,21 +27123,65 @@
 </settings>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="3" master=""/>
   <rangeList sheetStid="7" master=""/>
 </allowEditUser>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -21066,35 +27190,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -21103,7 +27200,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/blockchain.xlsx
+++ b/blockchain.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingxie/projects/limingxie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{38BCD6B6-2519-C542-8826-5B8688DC714E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8E9CD26E-126B-A44A-BE00-919DF4A0D510}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="500" windowWidth="31560" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26723,6 +26723,124 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="277833" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="166" name="文本框 165">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63C00343-9EFA-CE42-932A-E65E7F4C50F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5791200" y="13004800"/>
+          <a:ext cx="277833" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>X</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="277833" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="文本框 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{044E2A63-9044-A646-BD66-803F46505CAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6845300" y="13004800"/>
+          <a:ext cx="277833" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>X</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -27104,7 +27222,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="AT71" sqref="AT71"/>
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.1640625" defaultRowHeight="15"/>
